--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,18 +49,15 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,12 +70,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -88,82 +88,88 @@
     <t>thank</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>stock</t>
   </si>
   <si>
     <t>store</t>
@@ -175,10 +181,13 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
@@ -542,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -550,10 +559,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +670,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +720,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7226027397260274</v>
+        <v>0.708904109589041</v>
       </c>
       <c r="C5">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D5">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +738,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -761,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.375968992248062</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.375968992248062</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C7">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>322</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.84375</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +870,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3691275167785235</v>
+        <v>0.3422818791946309</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.84375</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +920,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3246753246753247</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8297872340425532</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +970,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3068783068783069</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8292682926829268</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L10">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,87 +1020,63 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2261904761904762</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="C11">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.7887323943661971</v>
+      </c>
+      <c r="L11">
+        <v>112</v>
+      </c>
+      <c r="M11">
+        <v>112</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K11">
-        <v>0.8083333333333333</v>
-      </c>
-      <c r="L11">
-        <v>97</v>
-      </c>
-      <c r="M11">
-        <v>97</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1233243967828418</v>
-      </c>
-      <c r="C12">
-        <v>46</v>
-      </c>
-      <c r="D12">
-        <v>46</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>327</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,21 +1088,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7830188679245284</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1129,12 +1114,12 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
         <v>0.7758620689655172</v>
@@ -1160,16 +1145,16 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1181,21 +1166,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.725</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L16">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="M16">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1207,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7142857142857143</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1233,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6944444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1259,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6702127659574468</v>
+        <v>0.71875</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1285,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.66</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1311,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6458333333333334</v>
+        <v>0.6135770234986945</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1337,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6370757180156658</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L22">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1363,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5617977528089888</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1389,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5529411764705883</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L24">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M24">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1415,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5288135593220339</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L25">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="M25">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1441,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>139</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4615384615384616</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1467,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4602510460251046</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L27">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1493,47 +1478,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4520547945205479</v>
+        <v>0.484375</v>
       </c>
       <c r="L28">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>33</v>
-      </c>
-      <c r="M28">
-        <v>33</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4102564102564102</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1545,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.40625</v>
+        <v>0.4728033472803347</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1571,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.3714285714285714</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1597,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.1267942583732057</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="L32">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1623,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>365</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.1105769230769231</v>
+        <v>0.1255813953488372</v>
       </c>
       <c r="L33">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1649,21 +1634,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>370</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.08053691275167785</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L34">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="M34">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1675,21 +1660,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>822</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.05771365149833518</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L35">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M35">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1701,73 +1686,73 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>849</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.0478395061728395</v>
+        <v>0.07951070336391437</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>617</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.03653395784543326</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="L37">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="M37">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="N37">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>2057</v>
+        <v>832</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.03460207612456748</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1779,59 +1764,163 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.02065182316876412</v>
+        <v>0.04930662557781202</v>
       </c>
       <c r="L39">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="N39">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="O39">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>3035</v>
+        <v>617</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40">
+        <v>0.04739884393063584</v>
+      </c>
+      <c r="L40">
+        <v>41</v>
+      </c>
+      <c r="M40">
+        <v>43</v>
+      </c>
+      <c r="N40">
+        <v>0.95</v>
+      </c>
+      <c r="O40">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K40">
-        <v>0.01222570532915361</v>
-      </c>
-      <c r="L40">
-        <v>39</v>
-      </c>
-      <c r="M40">
-        <v>50</v>
-      </c>
-      <c r="N40">
-        <v>0.78</v>
-      </c>
-      <c r="O40">
-        <v>0.22</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3151</v>
+      <c r="K41">
+        <v>0.04073033707865169</v>
+      </c>
+      <c r="L41">
+        <v>87</v>
+      </c>
+      <c r="M41">
+        <v>94</v>
+      </c>
+      <c r="N41">
+        <v>0.93</v>
+      </c>
+      <c r="O41">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42">
+        <v>0.02587991718426501</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>27</v>
+      </c>
+      <c r="N42">
+        <v>0.93</v>
+      </c>
+      <c r="O42">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43">
+        <v>0.01743060038734668</v>
+      </c>
+      <c r="L43">
+        <v>54</v>
+      </c>
+      <c r="M43">
+        <v>63</v>
+      </c>
+      <c r="N43">
+        <v>0.86</v>
+      </c>
+      <c r="O43">
+        <v>0.14</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K44">
+        <v>0.01034158570980884</v>
+      </c>
+      <c r="L44">
+        <v>33</v>
+      </c>
+      <c r="M44">
+        <v>43</v>
+      </c>
+      <c r="N44">
+        <v>0.77</v>
+      </c>
+      <c r="O44">
+        <v>0.23</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>3158</v>
       </c>
     </row>
   </sheetData>
